--- a/Projet MPRF.xlsx
+++ b/Projet MPRF.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="29">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>NFLX</t>
+  </si>
+  <si>
+    <t>AAPL</t>
   </si>
   <si>
     <t xml:space="preserve">Moyenne </t>
@@ -90,6 +93,21 @@
   </si>
   <si>
     <t>AMZN</t>
+  </si>
+  <si>
+    <t>Portion 1</t>
+  </si>
+  <si>
+    <t>Portion 2</t>
+  </si>
+  <si>
+    <t>Portion 3</t>
+  </si>
+  <si>
+    <t>Rendement AAPL</t>
+  </si>
+  <si>
+    <t>APPL</t>
   </si>
 </sst>
 </file>
@@ -159,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -178,6 +196,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,67 +327,67 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.6846445435486098E-3</c:v>
+                  <c:v>8.1759675534756188E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0978707908332774E-3</c:v>
+                  <c:v>7.8088864704471642E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5545446926269591E-3</c:v>
+                  <c:v>7.4528817866828925E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.054666248929654E-3</c:v>
+                  <c:v>7.1096176049979323E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.598235459741363E-3</c:v>
+                  <c:v>6.7810290220152891E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1852523250620836E-3</c:v>
+                  <c:v>6.4693526144909461E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8157168448918191E-3</c:v>
+                  <c:v>6.1771488932126438E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4896290192305683E-3</c:v>
+                  <c:v>5.9073082019059815E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2069888480783302E-3</c:v>
+                  <c:v>5.6630282076626903E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9677963314351055E-3</c:v>
+                  <c:v>5.4477484628377489E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7720514693008939E-3</c:v>
+                  <c:v>5.2650275111350502E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6197542616756965E-3</c:v>
+                  <c:v>5.1183535064273318E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5109047085595123E-3</c:v>
+                  <c:v>5.0108928431563095E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4455028099523409E-3</c:v>
+                  <c:v>4.9452025337212845E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.423548565854184E-3</c:v>
+                  <c:v>4.9229549722236789E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.44504197626504E-3</c:v>
+                  <c:v>4.9447365716133354E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.5099830411849091E-3</c:v>
+                  <c:v>5.0099730949226755E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.6183717606137924E-3</c:v>
+                  <c:v>5.117002795205209E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.7702081345516881E-3</c:v>
+                  <c:v>5.2632766738522192E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9654921629985987E-3</c:v>
+                  <c:v>5.4456332625311805E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2042238459545212E-3</c:v>
+                  <c:v>5.6605864059782018E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -632,7 +651,466 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33022900262467192"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frontiere effective</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3 titres'!$M$24:$M$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4.3061153352234899E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2370537262013036E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1827951947768713E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1439212550968302E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1208673188663551E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1138993564768876E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.123098923747015E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1483584607708783E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1893874811668522E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2457288396609165E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.3167830217376003E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4018376046667446E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5000988103837458E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6107223591145476E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.7328414728071255E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8655906635135367E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0081246956600191E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1596327189008431E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3193479849401773E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4865537945129841E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6605864059782018E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3 titres'!$L$24:$L$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-7.2088292956376402E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.5187837178948488E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.8287381401520531E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.1386925624092596E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.4486469846664661E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.7586014069236704E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.0685558291808726E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.3785102514380801E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6884646736952866E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.9841909595249309E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.0837351820969632E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8167205953309503E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0717176372758907E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.761763215018688E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4518087927614821E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1418543705042772E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8318999482470724E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.521945525989867E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.2119911037326627E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.9020366814754584E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.5920822592182497E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D50-41C5-8E79-D55F4B78972D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1922871103"/>
+        <c:axId val="1922871519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1922871103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1922871519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1922871519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1922871103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1188,6 +1666,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1202,6 +2196,41 @@
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1488,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:N27"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection sqref="A1:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,13 +2544,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="10"/>
     </row>
@@ -1559,10 +2588,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L3" s="8">
         <f>CORREL(B2:B54,C2:C54)</f>
@@ -1588,7 +2617,7 @@
         <v>0.12752631269248482</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="8">
         <f>AVERAGE(B2:B54)</f>
@@ -1618,7 +2647,7 @@
         <v>-6.8514970849890777E-2</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="8">
         <f>_xlfn.VAR.P(B2:B54)</f>
@@ -1648,7 +2677,7 @@
         <v>2.793515829009463E-2</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" s="8">
         <f>SQRT(H5)</f>
@@ -1754,12 +2783,12 @@
         <v>0.17157958543999285</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="7"/>
       <c r="J11" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="7"/>
@@ -1786,13 +2815,13 @@
         <v>3</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1855,7 +2884,7 @@
         <v>5.6693967266775669E-2</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" s="8">
         <f>I13</f>
@@ -1865,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K14" s="8">
         <f>_xlfn.COVARIANCE.P(B2:B54,C2:C54)</f>
@@ -1933,7 +2962,7 @@
         <v>0.12141020822862081</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -1962,7 +2991,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1984,7 +3013,7 @@
         <v>-0.11477772086704674</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" s="12">
         <f>AVERAGE(D3:D54)</f>
@@ -2014,7 +3043,7 @@
         <v>-1.0650667058795693E-2</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H20" s="12">
         <f>_xlfn.VAR.P(D3:D54)</f>
@@ -2025,7 +3054,7 @@
         <v>6.6846445435486098E-3</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="2"/>
@@ -2049,7 +3078,7 @@
         <v>-1.2101595169997648E-2</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H21" s="12">
         <f>_xlfn.STDEV.P(D3:D54)</f>
@@ -2064,7 +3093,7 @@
         <v>3</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2116,7 +3145,7 @@
         <v>0.27269228461538453</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M23" s="12">
         <f>CORREL(D3:D54,E3:E54)</f>
@@ -2145,7 +3174,7 @@
         <v>4.6872197888284006E-2</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
@@ -2173,7 +3202,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2225,7 +3254,7 @@
         <v>-8.0381618246064823E-2</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H27" s="12">
         <f>I26</f>
@@ -2293,13 +3322,13 @@
         <v>2.1621895629181376E-2</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2328,8 +3357,8 @@
         <v>-5.4392486610334899E-3</v>
       </c>
       <c r="I31" s="9">
-        <f>(G31^2)*$H$26+$I$27*(1-G31)^2+2*G31*(1-G31)*$I$26</f>
-        <v>6.6846445435486098E-3</v>
+        <f>SQRT((G31^2)*$H$26+$I$27*(1-G31)^2+2*G31*(1-G31)*$I$26)</f>
+        <v>8.1759675534756188E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2359,8 +3388,8 @@
         <v>-5.1343258166857237E-3</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" ref="I32:I51" si="3">(G32^2)*$H$26+$I$27*(1-G32)^2+2*G32*(1-G32)*$I$26</f>
-        <v>6.0978707908332774E-3</v>
+        <f t="shared" ref="I32:I51" si="3">SQRT((G32^2)*$H$26+$I$27*(1-G32)^2+2*G32*(1-G32)*$I$26)</f>
+        <v>7.8088864704471642E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2391,7 +3420,7 @@
       </c>
       <c r="I33" s="9">
         <f t="shared" si="3"/>
-        <v>5.5545446926269591E-3</v>
+        <v>7.4528817866828925E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2422,7 +3451,7 @@
       </c>
       <c r="I34" s="9">
         <f t="shared" si="3"/>
-        <v>5.054666248929654E-3</v>
+        <v>7.1096176049979323E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2452,8 +3481,8 @@
         <v>-4.2195572836424269E-3</v>
       </c>
       <c r="I35" s="9">
-        <f>(G35^2)*$H$26+$I$27*(1-G35)^2+2*G35*(1-G35)*$I$26</f>
-        <v>4.598235459741363E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.7810290220152891E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2484,7 +3513,7 @@
       </c>
       <c r="I36" s="9">
         <f t="shared" si="3"/>
-        <v>4.1852523250620836E-3</v>
+        <v>6.4693526144909461E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2515,7 +3544,7 @@
       </c>
       <c r="I37" s="9">
         <f t="shared" si="3"/>
-        <v>3.8157168448918191E-3</v>
+        <v>6.1771488932126438E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2546,7 +3575,7 @@
       </c>
       <c r="I38" s="9">
         <f t="shared" si="3"/>
-        <v>3.4896290192305683E-3</v>
+        <v>5.9073082019059815E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2577,7 +3606,7 @@
       </c>
       <c r="I39" s="9">
         <f t="shared" si="3"/>
-        <v>3.2069888480783302E-3</v>
+        <v>5.6630282076626903E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2608,7 +3637,7 @@
       </c>
       <c r="I40" s="9">
         <f t="shared" si="3"/>
-        <v>2.9677963314351055E-3</v>
+        <v>5.4477484628377489E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2639,7 +3668,7 @@
       </c>
       <c r="I41" s="9">
         <f t="shared" si="3"/>
-        <v>2.7720514693008939E-3</v>
+        <v>5.2650275111350502E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2670,7 +3699,7 @@
       </c>
       <c r="I42" s="9">
         <f t="shared" si="3"/>
-        <v>2.6197542616756965E-3</v>
+        <v>5.1183535064273318E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2701,7 +3730,7 @@
       </c>
       <c r="I43" s="9">
         <f t="shared" si="3"/>
-        <v>2.5109047085595123E-3</v>
+        <v>5.0108928431563095E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2732,7 +3761,7 @@
       </c>
       <c r="I44" s="9">
         <f t="shared" si="3"/>
-        <v>2.4455028099523409E-3</v>
+        <v>4.9452025337212845E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2763,7 +3792,7 @@
       </c>
       <c r="I45" s="9">
         <f t="shared" si="3"/>
-        <v>2.423548565854184E-3</v>
+        <v>4.9229549722236789E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2794,7 +3823,7 @@
       </c>
       <c r="I46" s="9">
         <f t="shared" si="3"/>
-        <v>2.44504197626504E-3</v>
+        <v>4.9447365716133354E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2825,7 +3854,7 @@
       </c>
       <c r="I47" s="9">
         <f t="shared" si="3"/>
-        <v>2.5099830411849091E-3</v>
+        <v>5.0099730949226755E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2856,7 +3885,7 @@
       </c>
       <c r="I48" s="9">
         <f t="shared" si="3"/>
-        <v>2.6183717606137924E-3</v>
+        <v>5.117002795205209E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2887,7 +3916,7 @@
       </c>
       <c r="I49" s="9">
         <f t="shared" si="3"/>
-        <v>2.7702081345516881E-3</v>
+        <v>5.2632766738522192E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2918,7 +3947,7 @@
       </c>
       <c r="I50" s="9">
         <f t="shared" si="3"/>
-        <v>2.9654921629985987E-3</v>
+        <v>5.4456332625311805E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2944,12 +3973,12 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="H51" s="9">
-        <f t="shared" si="2"/>
+        <f>G51*$H$19+(1-G51)*$I$19</f>
         <v>6.5920822592182616E-4</v>
       </c>
       <c r="I51" s="9">
         <f t="shared" si="3"/>
-        <v>3.2042238459545212E-3</v>
+        <v>5.6605864059782018E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3020,8 +4049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,6 +4062,10 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -3043,19 +4076,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -3228,7 +4261,7 @@
         <v>5.9861000742822856E-2</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -3264,10 +4297,10 @@
         <v>3</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -3296,7 +4329,7 @@
         <v>1.968390084606586E-3</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" s="12">
         <f>AVERAGE(E3:E54)</f>
@@ -3337,7 +4370,7 @@
         <v>3.3126717184275289E-3</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" s="12">
         <f>_xlfn.VAR.P(E3:E54)</f>
@@ -3352,7 +4385,7 @@
         <v>1.8258293411766251E-3</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="2"/>
@@ -3383,7 +4416,7 @@
         <v>3.4558412897685908E-2</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J12" s="12">
         <f>_xlfn.STDEV.P(E3:E54)</f>
@@ -3402,10 +4435,10 @@
         <v>3</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -3468,7 +4501,7 @@
         <v>1.2309955455254151E-2</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" s="12">
         <f>CORREL(E3:E54,F3:F54)</f>
@@ -3505,12 +4538,12 @@
         <v>5.6324398236127005E-2</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
       <c r="N15" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O15" s="12">
         <f>CORREL(E3:E55,G3:G55)</f>
@@ -3554,13 +4587,13 @@
         <v>3</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43353</v>
       </c>
@@ -3595,7 +4628,7 @@
       <c r="K17" s="12"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43360</v>
       </c>
@@ -3621,7 +4654,7 @@
         <v>-2.8007416874736846E-2</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J18" s="12">
         <f>_xlfn.COVARIANCE.P(F3:F54,E3:E54)</f>
@@ -3633,7 +4666,7 @@
       </c>
       <c r="L18" s="8"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43367</v>
       </c>
@@ -3659,7 +4692,7 @@
         <v>4.5947535282074181E-2</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J19" s="12">
         <f>_xlfn.COVARIANCE.P(E3:E55,G3:G55)</f>
@@ -3674,7 +4707,7 @@
         <v>1.8258293411766251E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43374</v>
       </c>
@@ -3700,7 +4733,7 @@
         <v>-5.6590102845731405E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43381</v>
       </c>
@@ -3726,7 +4759,7 @@
         <v>-5.3470239312419898E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43388</v>
       </c>
@@ -3752,7 +4785,7 @@
         <v>-1.3742490652594697E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43395</v>
       </c>
@@ -3777,8 +4810,24 @@
         <f t="shared" si="2"/>
         <v>-6.8717634057917754E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43402</v>
       </c>
@@ -3803,8 +4852,27 @@
         <f t="shared" si="2"/>
         <v>1.3829943319089599E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>(1-I24)*0.4</f>
+        <v>0.4</v>
+      </c>
+      <c r="K24">
+        <f>(1-I24)*0.6</f>
+        <v>0.6</v>
+      </c>
+      <c r="L24" s="9">
+        <f>I24*$J$10+J24*$K$10+K24*$L$10</f>
+        <v>-7.2088292956376402E-4</v>
+      </c>
+      <c r="M24" s="9">
+        <f>SQRT((I24^2)*$J$11+(J24^2)*$K$11+(K24^2)*$L$11+2*(I24*J24*$J$18+I24*K24*$J$19+J24*K24*$K$19))</f>
+        <v>4.3061153352234899E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43409</v>
       </c>
@@ -3829,8 +4897,28 @@
         <f t="shared" si="2"/>
         <v>2.8159219097454002E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f>I24+0.05</f>
+        <v>0.05</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J44" si="5">(1-I25)*0.4</f>
+        <v>0.38</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ref="K25:K44" si="6">(1-I25)*0.6</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" ref="L25:L44" si="7">I25*$J$10+J25*$K$10+K25*$L$10</f>
+        <v>-6.5187837178948488E-4</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" ref="M25:M44" si="8">SQRT((I25^2)*$J$11+(J25^2)*$K$11+(K25^2)*$L$11+2*(I25*J25*$J$18+I25*K25*$J$19+J25*K25*$K$19))</f>
+        <v>4.2370537262013036E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43416</v>
       </c>
@@ -3855,8 +4943,28 @@
         <f t="shared" si="2"/>
         <v>-6.9503580436459655E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" ref="I26:I44" si="9">I25+0.05</f>
+        <v>0.1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>0.54</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="7"/>
+        <v>-5.8287381401520531E-4</v>
+      </c>
+      <c r="M26" s="9">
+        <f>SQRT((I26^2)*$J$11+(J26^2)*$K$11+(K26^2)*$L$11+2*(I26*J26*$J$18+I26*K26*$J$19+J26*K26*$K$19))</f>
+        <v>4.1827951947768713E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43423</v>
       </c>
@@ -3881,8 +4989,28 @@
         <f t="shared" si="2"/>
         <v>-5.7329860519756304E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="9"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>0.34</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>0.51</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="7"/>
+        <v>-5.1386925624092596E-4</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="8"/>
+        <v>4.1439212550968302E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43430</v>
       </c>
@@ -3907,8 +5035,28 @@
         <f t="shared" si="2"/>
         <v>0.12523466280385276</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>0.48</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="7"/>
+        <v>-4.4486469846664661E-4</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="8"/>
+        <v>4.1208673188663551E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43437</v>
       </c>
@@ -3933,8 +5081,28 @@
         <f t="shared" si="2"/>
         <v>-3.6114732489010981E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="7"/>
+        <v>-3.7586014069236704E-4</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="8"/>
+        <v>4.1138993564768876E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43444</v>
       </c>
@@ -3959,8 +5127,28 @@
         <f t="shared" si="2"/>
         <v>-2.2846532128048325E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="9"/>
+        <v>0.3</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="5"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>0.42</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="7"/>
+        <v>-3.0685558291808726E-4</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="8"/>
+        <v>4.123098923747015E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43451</v>
       </c>
@@ -3985,8 +5173,28 @@
         <f t="shared" si="2"/>
         <v>-0.13471872054297251</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" si="9"/>
+        <v>0.35</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="5"/>
+        <v>0.26</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>0.39</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="7"/>
+        <v>-2.3785102514380801E-4</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="8"/>
+        <v>4.1483584607708783E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43458</v>
       </c>
@@ -4011,8 +5219,28 @@
         <f t="shared" si="2"/>
         <v>7.3011777253313648E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" si="9"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="5"/>
+        <v>0.24000000000000005</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="6"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="7"/>
+        <v>-1.6884646736952866E-4</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="8"/>
+        <v>4.1893874811668522E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43465</v>
       </c>
@@ -4037,8 +5265,28 @@
         <f t="shared" si="2"/>
         <v>6.5878671251015986E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="9"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>0.33</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="7"/>
+        <v>-9.9841909595249309E-5</v>
+      </c>
+      <c r="M33" s="9">
+        <f>SQRT((I33^2)*$J$11+(J33^2)*$K$11+(K33^2)*$L$11+2*(I33*J33*$J$18+I33*K33*$J$19+J33*K33*$K$19))</f>
+        <v>4.2457288396609165E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43472</v>
       </c>
@@ -4063,8 +5311,28 @@
         <f t="shared" si="2"/>
         <v>4.1367561924023022E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <f t="shared" si="9"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="7"/>
+        <v>-3.0837351820969632E-5</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="8"/>
+        <v>4.3167830217376003E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43479</v>
       </c>
@@ -4089,8 +5357,28 @@
         <f t="shared" si="2"/>
         <v>3.3915181400865801E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <f t="shared" si="9"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="5"/>
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="6"/>
+        <v>0.27</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="7"/>
+        <v>3.8167205953309503E-5</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="8"/>
+        <v>4.4018376046667446E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43486</v>
       </c>
@@ -4115,8 +5403,28 @@
         <f t="shared" si="2"/>
         <v>-1.5110249817475663E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="5"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="6"/>
+        <v>0.24</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" si="7"/>
+        <v>1.0717176372758907E-4</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="8"/>
+        <v>4.5000988103837458E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43493</v>
       </c>
@@ -4141,8 +5449,28 @@
         <f t="shared" si="2"/>
         <v>-2.6541819518642318E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <f t="shared" si="9"/>
+        <v>0.65</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="5"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="6"/>
+        <v>0.21</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" si="7"/>
+        <v>1.761763215018688E-4</v>
+      </c>
+      <c r="M37" s="9">
+        <f t="shared" si="8"/>
+        <v>4.6107223591145476E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43500</v>
       </c>
@@ -4167,8 +5495,28 @@
         <f t="shared" si="2"/>
         <v>-2.3373083430672015E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <f t="shared" si="9"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="5"/>
+        <v>0.11999999999999998</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="6"/>
+        <v>0.17999999999999997</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="7"/>
+        <v>2.4518087927614821E-4</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="8"/>
+        <v>4.7328414728071255E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43507</v>
       </c>
@@ -4193,8 +5541,28 @@
         <f t="shared" si="2"/>
         <v>1.2422699852827845E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <f t="shared" si="9"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999964E-2</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="6"/>
+        <v>0.14999999999999994</v>
+      </c>
+      <c r="L39" s="9">
+        <f t="shared" si="7"/>
+        <v>3.1418543705042772E-4</v>
+      </c>
+      <c r="M39" s="9">
+        <f>SQRT((I39^2)*$J$11+(J39^2)*$K$11+(K39^2)*$L$11+2*(I39*J39*$J$18+I39*K39*$J$19+J39*K39*$K$19))</f>
+        <v>4.8655906635135367E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43514</v>
       </c>
@@ -4219,8 +5587,28 @@
         <f t="shared" si="2"/>
         <v>1.4683360004654755E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <f t="shared" si="9"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>7.9999999999999946E-2</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="6"/>
+        <v>0.1199999999999999</v>
+      </c>
+      <c r="L40" s="9">
+        <f t="shared" si="7"/>
+        <v>3.8318999482470724E-4</v>
+      </c>
+      <c r="M40" s="9">
+        <f t="shared" si="8"/>
+        <v>5.0081246956600191E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43521</v>
       </c>
@@ -4245,8 +5633,28 @@
         <f t="shared" si="2"/>
         <v>2.4620559187150448E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <f>I40+0.05</f>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>5.9999999999999921E-2</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="6"/>
+        <v>8.9999999999999872E-2</v>
+      </c>
+      <c r="L41" s="9">
+        <f t="shared" si="7"/>
+        <v>4.521945525989867E-4</v>
+      </c>
+      <c r="M41" s="9">
+        <f t="shared" si="8"/>
+        <v>5.1596327189008431E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43528</v>
       </c>
@@ -4271,8 +5679,28 @@
         <f t="shared" si="2"/>
         <v>-3.0465405064997508E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <f t="shared" si="9"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>3.9999999999999904E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="6"/>
+        <v>5.9999999999999852E-2</v>
+      </c>
+      <c r="L42" s="9">
+        <f t="shared" si="7"/>
+        <v>5.2119911037326627E-4</v>
+      </c>
+      <c r="M42" s="9">
+        <f t="shared" si="8"/>
+        <v>5.3193479849401773E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43535</v>
       </c>
@@ -4297,8 +5725,28 @@
         <f t="shared" si="2"/>
         <v>5.6490580720608197E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <f t="shared" si="9"/>
+        <v>0.95000000000000029</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999886E-2</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="6"/>
+        <v>2.9999999999999825E-2</v>
+      </c>
+      <c r="L43" s="9">
+        <f t="shared" si="7"/>
+        <v>5.9020366814754584E-4</v>
+      </c>
+      <c r="M43" s="9">
+        <f t="shared" si="8"/>
+        <v>5.4865537945129841E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43542</v>
       </c>
@@ -4323,8 +5771,26 @@
         <f t="shared" si="2"/>
         <v>3.0606902438215844E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f t="shared" si="9"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9">
+        <f t="shared" si="7"/>
+        <v>6.5920822592182497E-4</v>
+      </c>
+      <c r="M44" s="9">
+        <f t="shared" si="8"/>
+        <v>5.6605864059782018E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43549</v>
       </c>
@@ -4350,7 +5816,7 @@
         <v>9.0549928993013395E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43556</v>
       </c>
@@ -4376,7 +5842,7 @@
         <v>3.17450675277271E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43563</v>
       </c>
@@ -4402,7 +5868,7 @@
         <v>3.1459711686661063E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43570</v>
       </c>
@@ -4586,290 +6052,2009 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:E54"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="G16" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43248</v>
+      </c>
+      <c r="B2">
+        <v>359.92999300000002</v>
+      </c>
+      <c r="C2">
+        <v>291.82000699999998</v>
+      </c>
+      <c r="D2">
+        <v>1641.540039</v>
+      </c>
       <c r="E2">
         <v>190.240005</v>
       </c>
     </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43255</v>
+      </c>
+      <c r="B3">
+        <v>360.57000699999998</v>
+      </c>
+      <c r="C3">
+        <v>317.66000400000001</v>
+      </c>
+      <c r="D3">
+        <v>1683.98999</v>
+      </c>
       <c r="E3">
         <v>191.699997</v>
       </c>
-    </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="9">
+        <f>(B3/B2)-1</f>
+        <v>1.7781624550525787E-3</v>
+      </c>
+      <c r="G3" s="9">
+        <f>(C3/C2)-1</f>
+        <v>8.8547722500740056E-2</v>
+      </c>
+      <c r="H3" s="9">
+        <f>(D3/D2)-1</f>
+        <v>2.5859832834695728E-2</v>
+      </c>
+      <c r="I3" s="9">
+        <f>(E3/E2)-1</f>
+        <v>7.6744741464866983E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43262</v>
+      </c>
+      <c r="B4">
+        <v>391.98001099999999</v>
+      </c>
+      <c r="C4">
+        <v>358.17001299999998</v>
+      </c>
+      <c r="D4">
+        <v>1715.969971</v>
+      </c>
       <c r="E4">
         <v>188.83999600000001</v>
       </c>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F54" si="0">(B4/B3)-1</f>
+        <v>8.7112081954171083E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G54" si="1">(C4/C3)-1</f>
+        <v>0.12752631269248482</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H54" si="2">(D4/D3)-1</f>
+        <v>1.8990600413248293E-2</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I4:I54" si="3">(E4/E3)-1</f>
+        <v>-1.4919149946569843E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43269</v>
+      </c>
+      <c r="B5">
+        <v>411.08999599999999</v>
+      </c>
+      <c r="C5">
+        <v>333.63000499999998</v>
+      </c>
+      <c r="D5">
+        <v>1715.670044</v>
+      </c>
       <c r="E5">
         <v>184.91999799999999</v>
       </c>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>4.8752447736422955E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="1"/>
+        <v>-6.8514970849890777E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.7478569268036814E-4</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="3"/>
+        <v>-2.0758303765268105E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B6">
+        <v>391.42999300000002</v>
+      </c>
+      <c r="C6">
+        <v>342.95001200000002</v>
+      </c>
+      <c r="D6">
+        <v>1699.8000489999999</v>
+      </c>
       <c r="E6">
         <v>185.11000100000001</v>
       </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>-4.7824085215637191E-2</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="1"/>
+        <v>2.793515829009463E-2</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="2"/>
+        <v>-9.2500274487511414E-3</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="3"/>
+        <v>1.027487573301844E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43283</v>
+      </c>
+      <c r="B7">
+        <v>408.25</v>
+      </c>
+      <c r="C7">
+        <v>308.89999399999999</v>
+      </c>
+      <c r="D7">
+        <v>1710.630005</v>
+      </c>
       <c r="E7">
         <v>187.970001</v>
       </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>4.2970664744129472E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="1"/>
+        <v>-9.92856591589798E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="2"/>
+        <v>6.3713117353840776E-3</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="3"/>
+        <v>1.5450272727295822E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43290</v>
+      </c>
+      <c r="B8">
+        <v>395.79998799999998</v>
+      </c>
+      <c r="C8">
+        <v>318.86999500000002</v>
+      </c>
+      <c r="D8">
+        <v>1813.030029</v>
+      </c>
       <c r="E8">
         <v>191.33000200000001</v>
       </c>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.0496048989589797E-2</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>3.2275821280851158E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="2"/>
+        <v>5.9861000742822856E-2</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="3"/>
+        <v>1.787519807482485E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43297</v>
+      </c>
+      <c r="B9">
+        <v>361.04998799999998</v>
+      </c>
+      <c r="C9">
+        <v>313.57998700000002</v>
+      </c>
+      <c r="D9">
+        <v>1813.6999510000001</v>
+      </c>
       <c r="E9">
         <v>191.44000199999999</v>
       </c>
-    </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>-8.7796869766453844E-2</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.658985819597103E-2</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="2"/>
+        <v>3.6950408392821821E-4</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="3"/>
+        <v>5.7492290205485297E-4</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43304</v>
+      </c>
+      <c r="B10">
+        <v>355.209991</v>
+      </c>
+      <c r="C10">
+        <v>297.17999300000002</v>
+      </c>
+      <c r="D10">
+        <v>1817.2700199999999</v>
+      </c>
       <c r="E10">
         <v>190.979996</v>
       </c>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6175037236118017E-2</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="1"/>
+        <v>-5.2299236813221683E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="2"/>
+        <v>1.968390084606586E-3</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="3"/>
+        <v>-2.4028729377050251E-3</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43311</v>
+      </c>
+      <c r="B11">
+        <v>343.08999599999999</v>
+      </c>
+      <c r="C11">
+        <v>348.17001299999998</v>
+      </c>
+      <c r="D11">
+        <v>1823.290039</v>
+      </c>
       <c r="E11">
         <v>207.990005</v>
       </c>
-    </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.4120647805765181E-2</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.17157958543999285</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="2"/>
+        <v>3.3126717184275289E-3</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="3"/>
+        <v>8.9066966992710661E-2</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="12">
+        <f>AVERAGE(F3:F55)</f>
+        <v>6.5920822592182486E-4</v>
+      </c>
+      <c r="O11" s="12">
+        <f>AVERAGE(G3:G55)</f>
+        <v>-5.4392486610334899E-3</v>
+      </c>
+      <c r="P11" s="12">
+        <f t="shared" ref="O11:Q11" si="4">AVERAGE(H3:H55)</f>
+        <v>2.4246942247493864E-3</v>
+      </c>
+      <c r="Q11" s="12">
+        <f>AVERAGE(I3:I55)</f>
+        <v>-8.4783173113555993E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43318</v>
+      </c>
+      <c r="B12">
+        <v>345.86999500000002</v>
+      </c>
+      <c r="C12">
+        <v>355.48998999999998</v>
+      </c>
+      <c r="D12">
+        <v>1886.3000489999999</v>
+      </c>
       <c r="E12">
         <v>207.529999</v>
       </c>
-    </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>8.1028273409640139E-3</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1024145465393662E-2</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="2"/>
+        <v>3.4558412897685908E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="3"/>
+        <v>-2.211673584987861E-3</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="12">
+        <f>_xlfn.VAR.P(F3:F55)</f>
+        <v>3.2042238459545204E-3</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" ref="O12:Q12" si="5">_xlfn.VAR.P(G3:G55)</f>
+        <v>6.6846445435486098E-3</v>
+      </c>
+      <c r="P12" s="12">
+        <f t="shared" si="5"/>
+        <v>1.8258293411766251E-3</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" si="5"/>
+        <v>1.4797867309123416E-3</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43325</v>
+      </c>
+      <c r="B13">
+        <v>316.77999899999998</v>
+      </c>
+      <c r="C13">
+        <v>305.5</v>
+      </c>
+      <c r="D13">
+        <v>1882.219971</v>
+      </c>
       <c r="E13">
         <v>217.58000200000001</v>
       </c>
-    </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>-8.4106734959764395E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.14062277815473789</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.1630058283479414E-3</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="3"/>
+        <v>4.8426748173405088E-2</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="12">
+        <f>_xlfn.STDEV.P(F3:F55)</f>
+        <v>5.6605864059782005E-2</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" ref="O13:Q13" si="6">_xlfn.STDEV.P(G3:G55)</f>
+        <v>8.1759675534756188E-2</v>
+      </c>
+      <c r="P13" s="12">
+        <f t="shared" si="6"/>
+        <v>4.2729724328348116E-2</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="6"/>
+        <v>3.8467996190500245E-2</v>
+      </c>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43332</v>
+      </c>
+      <c r="B14">
+        <v>358.82000699999998</v>
+      </c>
+      <c r="C14">
+        <v>322.82000699999998</v>
+      </c>
+      <c r="D14">
+        <v>1905.3900149999999</v>
+      </c>
       <c r="E14">
         <v>216.16000399999999</v>
       </c>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13271042405679156</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="1"/>
+        <v>5.6693967266775669E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="2"/>
+        <v>1.2309955455254151E-2</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="3"/>
+        <v>-6.526325889086193E-3</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="8">
+        <v>1</v>
+      </c>
+      <c r="U14" s="12"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="7"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43339</v>
+      </c>
+      <c r="B15">
+        <v>367.67999300000002</v>
+      </c>
+      <c r="C15">
+        <v>301.66000400000001</v>
+      </c>
+      <c r="D15">
+        <v>2012.709961</v>
+      </c>
       <c r="E15">
         <v>227.63000500000001</v>
       </c>
-    </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4692006652795362E-2</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="1"/>
+        <v>-6.5547371727799897E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="2"/>
+        <v>5.6324398236127005E-2</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="3"/>
+        <v>5.3062549906318646E-2</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="12">
+        <v>0.12957190073285266</v>
+      </c>
+      <c r="U15" s="8">
+        <v>1</v>
+      </c>
+      <c r="V15" s="8"/>
+      <c r="W15" s="7"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43346</v>
+      </c>
+      <c r="B16">
+        <v>348.67999300000002</v>
+      </c>
+      <c r="C16">
+        <v>263.23998999999998</v>
+      </c>
+      <c r="D16">
+        <v>1952.0699460000001</v>
+      </c>
       <c r="E16">
         <v>221.300003</v>
       </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>-5.1675370870669091E-2</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.12736197537145177</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="2"/>
+        <v>-3.0128541208128912E-2</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="3"/>
+        <v>-2.7808293550755758E-2</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="2"/>
+      <c r="S16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" s="12">
+        <v>0.65999040279027443</v>
+      </c>
+      <c r="U16" s="12">
+        <v>7.5985606359139743E-2</v>
+      </c>
+      <c r="V16" s="8">
+        <v>1</v>
+      </c>
+      <c r="W16" s="7"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43353</v>
+      </c>
+      <c r="B17">
+        <v>364.55999800000001</v>
+      </c>
+      <c r="C17">
+        <v>295.20001200000002</v>
+      </c>
+      <c r="D17">
+        <v>1970.1899410000001</v>
+      </c>
       <c r="E17">
         <v>223.83999600000001</v>
       </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>4.5543206719061757E-2</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="1"/>
+        <v>0.12141020822862081</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="2"/>
+        <v>9.2824517057545908E-3</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="3"/>
+        <v>1.1477600386657016E-2</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T17" s="12">
+        <f>CORREL(F3:F54,$I$3:$I$54)</f>
+        <v>0.29140608124344386</v>
+      </c>
+      <c r="U17" s="12">
+        <f t="shared" ref="U17:V17" si="7">CORREL(G3:G54,$I$3:$I$54)</f>
+        <v>0.22804084999293492</v>
+      </c>
+      <c r="V17" s="12">
+        <f t="shared" si="7"/>
+        <v>0.58051651475291877</v>
+      </c>
+      <c r="W17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43360</v>
+      </c>
+      <c r="B18">
+        <v>361.19000199999999</v>
+      </c>
+      <c r="C18">
+        <v>299.10000600000001</v>
+      </c>
+      <c r="D18">
+        <v>1915.01001</v>
+      </c>
       <c r="E18">
         <v>217.66000399999999</v>
       </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>-9.2440092673031771E-3</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="1"/>
+        <v>1.3211361251570741E-2</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.8007416874736846E-2</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="3"/>
+        <v>-2.7608971186722231E-2</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="12">
+        <f>N12</f>
+        <v>3.2042238459545204E-3</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="7"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43367</v>
+      </c>
+      <c r="B19">
+        <v>374.13000499999998</v>
+      </c>
+      <c r="C19">
+        <v>264.76998900000001</v>
+      </c>
+      <c r="D19">
+        <v>2003</v>
+      </c>
       <c r="E19">
         <v>225.740005</v>
       </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>3.5826027653999004E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.11477772086704674</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="2"/>
+        <v>4.5947535282074181E-2</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="3"/>
+        <v>3.7122120975427331E-2</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="12">
+        <v>5.9966874385022309E-4</v>
+      </c>
+      <c r="O19" s="12">
+        <v>6.6846445435486098E-3</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B20">
+        <v>351.35000600000001</v>
+      </c>
+      <c r="C20">
+        <v>261.95001200000002</v>
+      </c>
+      <c r="D20">
+        <v>1889.650024</v>
+      </c>
       <c r="E20">
         <v>224.28999300000001</v>
       </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>-6.0887923169915203E-2</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.0650667058795693E-2</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="2"/>
+        <v>-5.6590102845731405E-2</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="3"/>
+        <v>-6.4233718786352867E-3</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="12">
+        <v>1.5963537447045114E-3</v>
+      </c>
+      <c r="O20" s="12">
+        <v>2.6546091298610054E-4</v>
+      </c>
+      <c r="P20" s="12">
+        <f>P12</f>
+        <v>1.8258293411766251E-3</v>
+      </c>
+      <c r="Q20" s="7"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43381</v>
+      </c>
+      <c r="B21">
+        <v>339.55999800000001</v>
+      </c>
+      <c r="C21">
+        <v>258.77999899999998</v>
+      </c>
+      <c r="D21">
+        <v>1788.6099850000001</v>
+      </c>
       <c r="E21">
         <v>222.11000100000001</v>
       </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.3556305105058137E-2</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.2101595169997648E-2</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="2"/>
+        <v>-5.3470239312419898E-2</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="3"/>
+        <v>-9.7195241340972682E-3</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="12">
+        <f>_xlfn.COVARIANCE.P(F3:F54,$I$3:$I$54)</f>
+        <v>6.3454086909532821E-4</v>
+      </c>
+      <c r="O21" s="12">
+        <f>_xlfn.COVARIANCE.P(G3:G54,$I$3:$I$54)</f>
+        <v>7.1721832081223262E-4</v>
+      </c>
+      <c r="P21" s="12">
+        <f>_xlfn.COVARIANCE.P(H3:H54,$I$3:$I$54)</f>
+        <v>9.5421059533624323E-4</v>
+      </c>
+      <c r="Q21" s="12">
+        <f>Q12</f>
+        <v>1.4797867309123416E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43388</v>
+      </c>
+      <c r="B22">
+        <v>332.67001299999998</v>
+      </c>
+      <c r="C22">
+        <v>260</v>
+      </c>
+      <c r="D22">
+        <v>1764.030029</v>
+      </c>
       <c r="E22">
         <v>219.30999800000001</v>
       </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.0290920722646599E-2</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="1"/>
+        <v>4.7144331274227014E-3</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.3742490652594697E-2</v>
+      </c>
+      <c r="I22" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.260637966500211E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43395</v>
+      </c>
+      <c r="B23">
+        <v>299.82998700000002</v>
+      </c>
+      <c r="C23">
+        <v>330.89999399999999</v>
+      </c>
+      <c r="D23">
+        <v>1642.8100589999999</v>
+      </c>
       <c r="E23">
         <v>216.300003</v>
       </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>-9.8716520024905163E-2</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="1"/>
+        <v>0.27269228461538453</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="2"/>
+        <v>-6.8717634057917754E-2</v>
+      </c>
+      <c r="I23" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.372484167365684E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43402</v>
+      </c>
+      <c r="B24">
+        <v>309.10000600000001</v>
+      </c>
+      <c r="C24">
+        <v>346.41000400000001</v>
+      </c>
+      <c r="D24">
+        <v>1665.530029</v>
+      </c>
       <c r="E24">
         <v>207.479996</v>
       </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>3.0917584637723428E-2</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="1"/>
+        <v>4.6872197888284006E-2</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3829943319089599E-2</v>
+      </c>
+      <c r="I24" s="9">
+        <f t="shared" si="3"/>
+        <v>-4.077673082602784E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43409</v>
+      </c>
+      <c r="B25">
+        <v>303.47000100000002</v>
+      </c>
+      <c r="C25">
+        <v>350.51001000000002</v>
+      </c>
+      <c r="D25">
+        <v>1712.4300539999999</v>
+      </c>
       <c r="E25">
         <v>204.470001</v>
       </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.8214185993901233E-2</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1835703220626437E-2</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="2"/>
+        <v>2.8159219097454002E-2</v>
+      </c>
+      <c r="I25" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.4507398583138653E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43416</v>
+      </c>
+      <c r="B26">
+        <v>286.209991</v>
+      </c>
+      <c r="C26">
+        <v>354.30999800000001</v>
+      </c>
+      <c r="D26">
+        <v>1593.410034</v>
+      </c>
       <c r="E26">
         <v>193.529999</v>
       </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>-5.6875506452448432E-2</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="1"/>
+        <v>1.0841310922903302E-2</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="2"/>
+        <v>-6.9503580436459655E-2</v>
+      </c>
+      <c r="I26" s="9">
+        <f t="shared" si="3"/>
+        <v>-5.3504191062238027E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43423</v>
+      </c>
+      <c r="B27">
+        <v>258.82000699999998</v>
+      </c>
+      <c r="C27">
+        <v>325.82998700000002</v>
+      </c>
+      <c r="D27">
+        <v>1502.0600589999999</v>
+      </c>
       <c r="E27">
         <v>172.28999300000001</v>
       </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="9">
+        <f t="shared" si="0"/>
+        <v>-9.5698909406695121E-2</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="1"/>
+        <v>-8.0381618246064823E-2</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="2"/>
+        <v>-5.7329860519756304E-2</v>
+      </c>
+      <c r="I27" s="9">
+        <f t="shared" si="3"/>
+        <v>-0.10975045786054072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43430</v>
+      </c>
+      <c r="B28">
+        <v>286.13000499999998</v>
+      </c>
+      <c r="C28">
+        <v>350.48001099999999</v>
+      </c>
+      <c r="D28">
+        <v>1690.170044</v>
+      </c>
       <c r="E28">
         <v>178.58000200000001</v>
       </c>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.10551733738265456</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="1"/>
+        <v>7.5653024532698954E-2</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="2"/>
+        <v>0.12523466280385276</v>
+      </c>
+      <c r="I28" s="9">
+        <f t="shared" si="3"/>
+        <v>3.650826661766704E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43437</v>
+      </c>
+      <c r="B29">
+        <v>265.14001500000001</v>
+      </c>
+      <c r="C29">
+        <v>357.97000100000002</v>
+      </c>
+      <c r="D29">
+        <v>1629.130005</v>
+      </c>
       <c r="E29">
         <v>168.490005</v>
       </c>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="9">
+        <f t="shared" si="0"/>
+        <v>-7.3358227495225359E-2</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1370662419889053E-2</v>
+      </c>
+      <c r="H29" s="9">
+        <f t="shared" si="2"/>
+        <v>-3.6114732489010981E-2</v>
+      </c>
+      <c r="I29" s="9">
+        <f t="shared" si="3"/>
+        <v>-5.6501270506201573E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43444</v>
+      </c>
+      <c r="B30">
+        <v>266.83999599999999</v>
+      </c>
+      <c r="C30">
+        <v>365.709991</v>
+      </c>
+      <c r="D30">
+        <v>1591.910034</v>
+      </c>
       <c r="E30">
         <v>165.479996</v>
       </c>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="9">
+        <f t="shared" si="0"/>
+        <v>6.4116349997187516E-3</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="1"/>
+        <v>2.1621895629181376E-2</v>
+      </c>
+      <c r="H30" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.2846532128048325E-2</v>
+      </c>
+      <c r="I30" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.7864614580550331E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43451</v>
+      </c>
+      <c r="B31">
+        <v>246.38999899999999</v>
+      </c>
+      <c r="C31">
+        <v>319.76998900000001</v>
+      </c>
+      <c r="D31">
+        <v>1377.4499510000001</v>
+      </c>
       <c r="E31">
         <v>150.729996</v>
       </c>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="9">
+        <f t="shared" si="0"/>
+        <v>-7.6637675410548223E-2</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.12561866815391431</v>
+      </c>
+      <c r="H31" s="9">
+        <f t="shared" si="2"/>
+        <v>-0.13471872054297251</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" si="3"/>
+        <v>-8.9134640781596386E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43458</v>
+      </c>
+      <c r="B32">
+        <v>256.07998700000002</v>
+      </c>
+      <c r="C32">
+        <v>333.86999500000002</v>
+      </c>
+      <c r="D32">
+        <v>1478.0200199999999</v>
+      </c>
       <c r="E32">
         <v>156.229996</v>
       </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="9">
+        <f t="shared" si="0"/>
+        <v>3.9327846257266375E-2</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="1"/>
+        <v>4.4094212981318881E-2</v>
+      </c>
+      <c r="H32" s="9">
+        <f t="shared" si="2"/>
+        <v>7.3011777253313648E-2</v>
+      </c>
+      <c r="I32" s="9">
+        <f t="shared" si="3"/>
+        <v>3.6489087414292687E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B33">
+        <v>297.57000699999998</v>
+      </c>
+      <c r="C33">
+        <v>317.69000199999999</v>
+      </c>
+      <c r="D33">
+        <v>1575.3900149999999</v>
+      </c>
       <c r="E33">
         <v>148.259995</v>
       </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="9">
+        <f t="shared" si="0"/>
+        <v>0.16201976767516757</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="1"/>
+        <v>-4.8461955977805116E-2</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="2"/>
+        <v>6.5878671251015986E-2</v>
+      </c>
+      <c r="I33" s="9">
+        <f t="shared" si="3"/>
+        <v>-5.1014537566780649E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43472</v>
+      </c>
+      <c r="B34">
+        <v>337.58999599999999</v>
+      </c>
+      <c r="C34">
+        <v>347.26001000000002</v>
+      </c>
+      <c r="D34">
+        <v>1640.5600589999999</v>
+      </c>
       <c r="E34">
         <v>152.28999300000001</v>
       </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.13448932371735967</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="1"/>
+        <v>9.3078182548533617E-2</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" si="2"/>
+        <v>4.1367561924023022E-2</v>
+      </c>
+      <c r="I34" s="9">
+        <f t="shared" si="3"/>
+        <v>2.7181965033790778E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43479</v>
+      </c>
+      <c r="B35">
+        <v>339.10000600000001</v>
+      </c>
+      <c r="C35">
+        <v>302.26001000000002</v>
+      </c>
+      <c r="D35">
+        <v>1696.1999510000001</v>
+      </c>
       <c r="E35">
         <v>156.820007</v>
       </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="9">
+        <f t="shared" si="0"/>
+        <v>4.4729109804546585E-3</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.12958589732229753</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="2"/>
+        <v>3.3915181400865801E-2</v>
+      </c>
+      <c r="I35" s="9">
+        <f t="shared" si="3"/>
+        <v>2.9745972869011705E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43486</v>
+      </c>
+      <c r="B36">
+        <v>338.04998799999998</v>
+      </c>
+      <c r="C36">
+        <v>297.040009</v>
+      </c>
+      <c r="D36">
+        <v>1670.5699460000001</v>
+      </c>
       <c r="E36">
         <v>157.759995</v>
       </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.0964847579507682E-3</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.7269902823069505E-2</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.5110249817475663E-2</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="3"/>
+        <v>5.9940566129421669E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43493</v>
+      </c>
+      <c r="B37">
+        <v>339.85000600000001</v>
+      </c>
+      <c r="C37">
+        <v>312.209991</v>
+      </c>
+      <c r="D37">
+        <v>1626.2299800000001</v>
+      </c>
       <c r="E37">
         <v>166.520004</v>
       </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="9">
+        <f t="shared" si="0"/>
+        <v>5.3247095515354115E-3</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="1"/>
+        <v>5.1070500741871472E-2</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.6541819518642318E-2</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="3"/>
+        <v>5.5527442175692165E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43500</v>
+      </c>
+      <c r="B38">
+        <v>347.57000699999998</v>
+      </c>
+      <c r="C38">
+        <v>305.79998799999998</v>
+      </c>
+      <c r="D38">
+        <v>1588.219971</v>
+      </c>
       <c r="E38">
         <v>170.41000399999999</v>
       </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="9">
+        <f t="shared" si="0"/>
+        <v>2.2715906616755932E-2</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="1"/>
+        <v>-2.0531063017775186E-2</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.3373083430672015E-2</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="shared" si="3"/>
+        <v>2.3360556729268289E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43507</v>
+      </c>
+      <c r="B39">
+        <v>356.86999500000002</v>
+      </c>
+      <c r="C39">
+        <v>307.88000499999998</v>
+      </c>
+      <c r="D39">
+        <v>1607.9499510000001</v>
+      </c>
       <c r="E39">
         <v>170.41999799999999</v>
       </c>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="9">
+        <f t="shared" si="0"/>
+        <v>2.675716492418756E-2</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="1"/>
+        <v>6.8018871210682175E-3</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="2"/>
+        <v>1.2422699852827845E-2</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" si="3"/>
+        <v>5.8646791651906227E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43514</v>
+      </c>
+      <c r="B40">
+        <v>363.01998900000001</v>
+      </c>
+      <c r="C40">
+        <v>294.709991</v>
+      </c>
+      <c r="D40">
+        <v>1631.5600589999999</v>
+      </c>
       <c r="E40">
         <v>172.970001</v>
       </c>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="9">
+        <f t="shared" si="0"/>
+        <v>1.7233149567533745E-2</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="1"/>
+        <v>-4.2776451169669105E-2</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="2"/>
+        <v>1.4683360004654755E-2</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="shared" si="3"/>
+        <v>1.4963050287091439E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43521</v>
+      </c>
+      <c r="B41">
+        <v>357.32000699999998</v>
+      </c>
+      <c r="C41">
+        <v>294.790009</v>
+      </c>
+      <c r="D41">
+        <v>1671.7299800000001</v>
+      </c>
       <c r="E41">
         <v>174.970001</v>
       </c>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.5701565127864137E-2</v>
+      </c>
+      <c r="G41" s="9">
+        <f t="shared" si="1"/>
+        <v>2.7151437835026826E-4</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="2"/>
+        <v>2.4620559187150448E-2</v>
+      </c>
+      <c r="I41" s="9">
+        <f t="shared" si="3"/>
+        <v>1.1562698667036519E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43528</v>
+      </c>
+      <c r="B42">
+        <v>349.60000600000001</v>
+      </c>
+      <c r="C42">
+        <v>284.14001500000001</v>
+      </c>
+      <c r="D42">
+        <v>1620.8000489999999</v>
+      </c>
       <c r="E42">
         <v>172.91000399999999</v>
       </c>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="9">
+        <f t="shared" si="0"/>
+        <v>-2.1605286154603665E-2</v>
+      </c>
+      <c r="G42" s="9">
+        <f t="shared" si="1"/>
+        <v>-3.6127391278040211E-2</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="2"/>
+        <v>-3.0465405064997508E-2</v>
+      </c>
+      <c r="I42" s="9">
+        <f t="shared" si="3"/>
+        <v>-1.1773429663522794E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43535</v>
+      </c>
+      <c r="B43">
+        <v>361.459991</v>
+      </c>
+      <c r="C43">
+        <v>275.42999300000002</v>
+      </c>
+      <c r="D43">
+        <v>1712.3599850000001</v>
+      </c>
       <c r="E43">
         <v>186.11999499999999</v>
       </c>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="9">
+        <f t="shared" si="0"/>
+        <v>3.3924441637452452E-2</v>
+      </c>
+      <c r="G43" s="9">
+        <f t="shared" si="1"/>
+        <v>-3.0653978813930838E-2</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="2"/>
+        <v>5.6490580720608197E-2</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="3"/>
+        <v>7.6398072375268633E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43542</v>
+      </c>
+      <c r="B44">
+        <v>361.01001000000002</v>
+      </c>
+      <c r="C44">
+        <v>264.52999899999998</v>
+      </c>
+      <c r="D44">
+        <v>1764.7700199999999</v>
+      </c>
       <c r="E44">
         <v>191.050003</v>
       </c>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.2448984983236544E-3</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" si="1"/>
+        <v>-3.9574462756494566E-2</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="2"/>
+        <v>3.0606902438215844E-2</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="3"/>
+        <v>2.6488330821199613E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43549</v>
+      </c>
+      <c r="B45">
+        <v>356.55999800000001</v>
+      </c>
+      <c r="C45">
+        <v>279.85998499999999</v>
+      </c>
+      <c r="D45">
+        <v>1780.75</v>
+      </c>
       <c r="E45">
         <v>189.949997</v>
       </c>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.2326561249645152E-2</v>
+      </c>
+      <c r="G45" s="9">
+        <f t="shared" si="1"/>
+        <v>5.7951786405896488E-2</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="2"/>
+        <v>9.0549928993013395E-3</v>
+      </c>
+      <c r="I45" s="9">
+        <f t="shared" si="3"/>
+        <v>-5.7576863790994581E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B46">
+        <v>365.48998999999998</v>
+      </c>
+      <c r="C46">
+        <v>274.959991</v>
+      </c>
+      <c r="D46">
+        <v>1837.280029</v>
+      </c>
       <c r="E46">
         <v>197</v>
       </c>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5044850936980279E-2</v>
+      </c>
+      <c r="G46" s="9">
+        <f t="shared" si="1"/>
+        <v>-1.7508733876334559E-2</v>
+      </c>
+      <c r="H46" s="9">
+        <f t="shared" si="2"/>
+        <v>3.17450675277271E-2</v>
+      </c>
+      <c r="I46" s="9">
+        <f t="shared" si="3"/>
+        <v>3.7115046650935124E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43563</v>
+      </c>
+      <c r="B47">
+        <v>351.14001500000001</v>
+      </c>
+      <c r="C47">
+        <v>267.70001200000002</v>
+      </c>
+      <c r="D47">
+        <v>1843.0600589999999</v>
+      </c>
       <c r="E47">
         <v>198.86999499999999</v>
       </c>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.9262292792204723E-2</v>
+      </c>
+      <c r="G47" s="9">
+        <f t="shared" si="1"/>
+        <v>-2.6403765048130134E-2</v>
+      </c>
+      <c r="H47" s="9">
+        <f t="shared" si="2"/>
+        <v>3.1459711686661063E-3</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" si="3"/>
+        <v>9.4923604060912492E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43570</v>
+      </c>
+      <c r="B48">
+        <v>360.35000600000001</v>
+      </c>
+      <c r="C48">
+        <v>273.26001000000002</v>
+      </c>
+      <c r="D48">
+        <v>1861.6899410000001</v>
+      </c>
       <c r="E48">
         <v>203.86000100000001</v>
       </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="9">
+        <f t="shared" si="0"/>
+        <v>2.6228827836668023E-2</v>
+      </c>
+      <c r="G48" s="9">
+        <f t="shared" si="1"/>
+        <v>2.076950971522562E-2</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" si="2"/>
+        <v>1.0108125293599057E-2</v>
+      </c>
+      <c r="I48" s="9">
+        <f t="shared" si="3"/>
+        <v>2.5091799293302186E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43577</v>
+      </c>
+      <c r="B49">
+        <v>374.85000600000001</v>
+      </c>
+      <c r="C49">
+        <v>235.13999899999999</v>
+      </c>
+      <c r="D49">
+        <v>1950.630005</v>
+      </c>
       <c r="E49">
         <v>204.300003</v>
       </c>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="9">
+        <f t="shared" si="0"/>
+        <v>4.0238656191391886E-2</v>
+      </c>
+      <c r="G49" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.13950087683887602</v>
+      </c>
+      <c r="H49" s="9">
+        <f t="shared" si="2"/>
+        <v>4.7773832817846085E-2</v>
+      </c>
+      <c r="I49" s="9">
+        <f t="shared" si="3"/>
+        <v>2.1583537616092219E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43584</v>
+      </c>
+      <c r="B50">
+        <v>385.02999899999998</v>
+      </c>
+      <c r="C50">
+        <v>255.029999</v>
+      </c>
+      <c r="D50">
+        <v>1962.459961</v>
+      </c>
       <c r="E50">
         <v>211.75</v>
       </c>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="9">
+        <f t="shared" si="0"/>
+        <v>2.7157510569707721E-2</v>
+      </c>
+      <c r="G50" s="9">
+        <f t="shared" si="1"/>
+        <v>8.4587905437560229E-2</v>
+      </c>
+      <c r="H50" s="9">
+        <f t="shared" si="2"/>
+        <v>6.0646847273324589E-3</v>
+      </c>
+      <c r="I50" s="9">
+        <f t="shared" si="3"/>
+        <v>3.6465966180137421E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43591</v>
+      </c>
+      <c r="B51">
+        <v>361.040009</v>
+      </c>
+      <c r="C51">
+        <v>239.520004</v>
+      </c>
+      <c r="D51">
+        <v>1889.9799800000001</v>
+      </c>
       <c r="E51">
         <v>197.179993</v>
       </c>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="9">
+        <f t="shared" si="0"/>
+        <v>-6.2306807423594956E-2</v>
+      </c>
+      <c r="G51" s="9">
+        <f t="shared" si="1"/>
+        <v>-6.0816355177102155E-2</v>
+      </c>
+      <c r="H51" s="9">
+        <f t="shared" si="2"/>
+        <v>-3.6933227908031663E-2</v>
+      </c>
+      <c r="I51" s="9">
+        <f t="shared" si="3"/>
+        <v>-6.8807589138134562E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43598</v>
+      </c>
+      <c r="B52">
+        <v>354.45001200000002</v>
+      </c>
+      <c r="C52">
+        <v>211.029999</v>
+      </c>
+      <c r="D52">
+        <v>1869</v>
+      </c>
       <c r="E52">
         <v>189</v>
       </c>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.8252816407391514E-2</v>
+      </c>
+      <c r="G52" s="9">
+        <f t="shared" si="1"/>
+        <v>-0.1189462446735764</v>
+      </c>
+      <c r="H52" s="9">
+        <f t="shared" si="2"/>
+        <v>-1.1100636103034356E-2</v>
+      </c>
+      <c r="I52" s="9">
+        <f t="shared" si="3"/>
+        <v>-4.1484903592627687E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43605</v>
+      </c>
+      <c r="B53">
+        <v>354.39001500000001</v>
+      </c>
+      <c r="C53">
+        <v>190.63000500000001</v>
+      </c>
+      <c r="D53">
+        <v>1823.280029</v>
+      </c>
       <c r="E53">
         <v>178.970001</v>
       </c>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="9">
+        <f t="shared" si="0"/>
+        <v>-1.6926787408322319E-4</v>
+      </c>
+      <c r="G53" s="9">
+        <f t="shared" si="1"/>
+        <v>-9.6668692113295207E-2</v>
+      </c>
+      <c r="H53" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.4462263777421112E-2</v>
+      </c>
+      <c r="I53" s="9">
+        <f t="shared" si="3"/>
+        <v>-5.3068777777777743E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43612</v>
+      </c>
+      <c r="B54">
+        <v>343.27999899999998</v>
+      </c>
+      <c r="C54">
+        <v>185.16000399999999</v>
+      </c>
+      <c r="D54">
+        <v>1775.0699460000001</v>
+      </c>
       <c r="E54">
         <v>175.070007</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" si="0"/>
+        <v>-3.1349686869704962E-2</v>
+      </c>
+      <c r="G54" s="9">
+        <f t="shared" si="1"/>
+        <v>-2.8694333822212426E-2</v>
+      </c>
+      <c r="H54" s="9">
+        <f t="shared" si="2"/>
+        <v>-2.6441403532753704E-2</v>
+      </c>
+      <c r="I54" s="9">
+        <f t="shared" si="3"/>
+        <v>-2.179132803379713E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Projet MPRF.xlsx
+++ b/Projet MPRF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2 titres" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>APPL</t>
+  </si>
+  <si>
+    <t>Portion 4</t>
+  </si>
+  <si>
+    <t>Risque</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1070,6 +1075,418 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frontiere effective</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'4 titres'!$R$25:$R$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4.2423828445392581E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1676797670030567E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1086917003528081E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0661026480433543E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0404312155904926E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0320005554348184E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0409185784609725E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0670711628998032E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1101293334938997E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1695693829961147E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2447031638037938E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.3347146925269517E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.4386989523989853E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5556992572010742E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6847404903273708E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8248566412877787E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9751120755075047E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.134616745810551E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3025360438634844E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4780962271760471E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.6605864059782018E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'4 titres'!$Q$25:$Q$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-1.0481355251522587E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.6276833759855471E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.7740115004485066E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.9203396249114661E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.0666677493744223E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.2129958738373807E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.3593239983003337E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4.5056521227632959E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.6519802472262549E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.7983083716892138E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.9446364961521695E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.0909646206151308E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.3729274507808746E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.1637913045895745E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4700510059959985E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3237228815330412E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1773947570700833E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0310666326071255E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8847385081441687E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.7384103836812124E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.5920822592182497E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88B9-4219-A527-CFFB1A1F4DF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="421509184"/>
+        <c:axId val="571036880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="421509184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571036880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="571036880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421509184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1111,6 +1528,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2182,6 +2639,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2231,6 +3204,41 @@
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3384,7 +4392,7 @@
         <v>0.05</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" ref="H32:H51" si="2">G32*$H$19+(1-G32)*$I$19</f>
+        <f t="shared" ref="H32:H50" si="2">G32*$H$19+(1-G32)*$I$19</f>
         <v>-5.1343258166857237E-3</v>
       </c>
       <c r="I32" s="9">
@@ -4049,8 +5057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:P15"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4902,11 +5910,11 @@
         <v>0.05</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25:J44" si="5">(1-I25)*0.4</f>
+        <f t="shared" ref="J25:J43" si="5">(1-I25)*0.4</f>
         <v>0.38</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:K44" si="6">(1-I25)*0.6</f>
+        <f t="shared" ref="K25:K43" si="6">(1-I25)*0.6</f>
         <v>0.56999999999999995</v>
       </c>
       <c r="L25" s="9">
@@ -6060,8 +7068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView topLeftCell="G16" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="J24" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6075,6 +7083,11 @@
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -6451,7 +7464,7 @@
         <v>-5.4392486610334899E-3</v>
       </c>
       <c r="P11" s="12">
-        <f t="shared" ref="O11:Q11" si="4">AVERAGE(H3:H55)</f>
+        <f t="shared" ref="P11" si="4">AVERAGE(H3:H55)</f>
         <v>2.4246942247493864E-3</v>
       </c>
       <c r="Q11" s="12">
@@ -7034,7 +8047,7 @@
         <v>-1.372484167365684E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43402</v>
       </c>
@@ -7066,6 +8079,24 @@
         <f t="shared" si="3"/>
         <v>-4.077673082602784E-2</v>
       </c>
+      <c r="M24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -7099,6 +8130,33 @@
         <f t="shared" si="3"/>
         <v>-1.4507398583138653E-2</v>
       </c>
+      <c r="L25">
+        <f>SUM(M25:P25)</f>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f>(1-M25)*0.4</f>
+        <v>0.4</v>
+      </c>
+      <c r="O25">
+        <f>(1-M25)*0.5</f>
+        <v>0.5</v>
+      </c>
+      <c r="P25">
+        <f>(1-M25)*0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q25" s="9">
+        <f>M25*$N$11+N25*$O$11+O25*$P$11+P25*$Q$11</f>
+        <v>-1.0481355251522587E-3</v>
+      </c>
+      <c r="R25" s="9">
+        <f>SQRT((M25^2)*$N$12+(N25^2)*$O$12+(O25^2)*$P$12+(P25^2)*$Q$12+2*(M25*N25*$N$19+M25*O25*$N$20+M25*P25*$N$21+N25*O25*$O$20+N25*P25*$O$21+O25*P25*$P$21))</f>
+        <v>4.2423828445392581E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -7132,6 +8190,34 @@
         <f t="shared" si="3"/>
         <v>-5.3504191062238027E-2</v>
       </c>
+      <c r="L26">
+        <f t="shared" ref="L26:L45" si="8">SUM(M26:P26)</f>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f>M25+0.05</f>
+        <v>0.05</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:N44" si="9">(1-M26)*0.4</f>
+        <v>0.38</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26:O44" si="10">(1-M26)*0.5</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26:P44" si="11">(1-M26)*0.1</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" ref="Q26:Q45" si="12">M26*$N$11+N26*$O$11+O26*$P$11+P26*$Q$11</f>
+        <v>-9.6276833759855471E-4</v>
+      </c>
+      <c r="R26" s="9">
+        <f t="shared" ref="R26:R45" si="13">SQRT((M26^2)*$N$12+(N26^2)*$O$12+(O26^2)*$P$12+(P26^2)*$Q$12+2*(M26*N26*$N$19+M26*O26*$N$20+M26*P26*$N$21+N26*O26*$O$20+N26*P26*$O$21+O26*P26*$P$21))</f>
+        <v>4.1676797670030567E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -7165,6 +8251,34 @@
         <f t="shared" si="3"/>
         <v>-0.10975045786054072</v>
       </c>
+      <c r="L27">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M45" si="14">M26+0.05</f>
+        <v>0.1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="9"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="10"/>
+        <v>0.45</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="11"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="Q27" s="9">
+        <f t="shared" si="12"/>
+        <v>-8.7740115004485066E-4</v>
+      </c>
+      <c r="R27" s="9">
+        <f t="shared" si="13"/>
+        <v>4.1086917003528081E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -7198,6 +8312,34 @@
         <f t="shared" si="3"/>
         <v>3.650826661766704E-2</v>
       </c>
+      <c r="L28">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="14"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="9"/>
+        <v>0.34</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="10"/>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="11"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="Q28" s="9">
+        <f t="shared" si="12"/>
+        <v>-7.9203396249114661E-4</v>
+      </c>
+      <c r="R28" s="9">
+        <f t="shared" si="13"/>
+        <v>4.0661026480433543E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -7231,6 +8373,34 @@
         <f t="shared" si="3"/>
         <v>-5.6501270506201573E-2</v>
       </c>
+      <c r="L29">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="14"/>
+        <v>0.2</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="9"/>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="11"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="Q29" s="9">
+        <f t="shared" si="12"/>
+        <v>-7.0666677493744223E-4</v>
+      </c>
+      <c r="R29" s="9">
+        <f t="shared" si="13"/>
+        <v>4.0404312155904926E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -7264,6 +8434,34 @@
         <f t="shared" si="3"/>
         <v>-1.7864614580550331E-2</v>
       </c>
+      <c r="L30">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="14"/>
+        <v>0.25</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="9"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="10"/>
+        <v>0.375</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="11"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="Q30" s="9">
+        <f t="shared" si="12"/>
+        <v>-6.2129958738373807E-4</v>
+      </c>
+      <c r="R30" s="9">
+        <f t="shared" si="13"/>
+        <v>4.0320005554348184E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -7297,6 +8495,34 @@
         <f t="shared" si="3"/>
         <v>-8.9134640781596386E-2</v>
       </c>
+      <c r="L31">
+        <f t="shared" si="8"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="14"/>
+        <v>0.3</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="9"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="10"/>
+        <v>0.35</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="11"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="12"/>
+        <v>-5.3593239983003337E-4</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" si="13"/>
+        <v>4.0409185784609725E-2</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -7330,8 +8556,36 @@
         <f t="shared" si="3"/>
         <v>3.6489087414292687E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="14"/>
+        <v>0.35</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="9"/>
+        <v>0.26</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="10"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="11"/>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="Q32" s="9">
+        <f t="shared" si="12"/>
+        <v>-4.5056521227632959E-4</v>
+      </c>
+      <c r="R32" s="9">
+        <f t="shared" si="13"/>
+        <v>4.0670711628998032E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43465</v>
       </c>
@@ -7363,8 +8617,36 @@
         <f t="shared" si="3"/>
         <v>-5.1014537566780649E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="14"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="9"/>
+        <v>0.24000000000000005</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="10"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="11"/>
+        <v>6.0000000000000012E-2</v>
+      </c>
+      <c r="Q33" s="9">
+        <f t="shared" si="12"/>
+        <v>-3.6519802472262549E-4</v>
+      </c>
+      <c r="R33" s="9">
+        <f t="shared" si="13"/>
+        <v>4.1101293334938997E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43472</v>
       </c>
@@ -7396,8 +8678,36 @@
         <f t="shared" si="3"/>
         <v>2.7181965033790778E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="14"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="9"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="10"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="11"/>
+        <v>5.5000000000000007E-2</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="12"/>
+        <v>-2.7983083716892138E-4</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="13"/>
+        <v>4.1695693829961147E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43479</v>
       </c>
@@ -7429,8 +8739,36 @@
         <f t="shared" si="3"/>
         <v>2.9745972869011705E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="14"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="11"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q35" s="9">
+        <f t="shared" si="12"/>
+        <v>-1.9446364961521695E-4</v>
+      </c>
+      <c r="R35" s="9">
+        <f t="shared" si="13"/>
+        <v>4.2447031638037938E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43486</v>
       </c>
@@ -7462,8 +8800,36 @@
         <f t="shared" si="3"/>
         <v>5.9940566129421669E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="14"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="9"/>
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="10"/>
+        <v>0.22500000000000003</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="11"/>
+        <v>4.5000000000000012E-2</v>
+      </c>
+      <c r="Q36" s="9">
+        <f t="shared" si="12"/>
+        <v>-1.0909646206151308E-4</v>
+      </c>
+      <c r="R36" s="9">
+        <f t="shared" si="13"/>
+        <v>4.3347146925269517E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43493</v>
       </c>
@@ -7495,8 +8861,36 @@
         <f t="shared" si="3"/>
         <v>5.5527442175692165E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="14"/>
+        <v>0.6</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="9"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="11"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="Q37" s="9">
+        <f t="shared" si="12"/>
+        <v>-2.3729274507808746E-5</v>
+      </c>
+      <c r="R37" s="9">
+        <f t="shared" si="13"/>
+        <v>4.4386989523989853E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43500</v>
       </c>
@@ -7528,8 +8922,36 @@
         <f t="shared" si="3"/>
         <v>2.3360556729268289E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="14"/>
+        <v>0.65</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="9"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="10"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="11"/>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="Q38" s="9">
+        <f t="shared" si="12"/>
+        <v>6.1637913045895745E-5</v>
+      </c>
+      <c r="R38" s="9">
+        <f t="shared" si="13"/>
+        <v>4.5556992572010742E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43507</v>
       </c>
@@ -7561,8 +8983,36 @@
         <f t="shared" si="3"/>
         <v>5.8646791651906227E-5</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="14"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="9"/>
+        <v>0.11999999999999998</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="10"/>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="11"/>
+        <v>2.9999999999999995E-2</v>
+      </c>
+      <c r="Q39" s="9">
+        <f t="shared" si="12"/>
+        <v>1.4700510059959985E-4</v>
+      </c>
+      <c r="R39" s="9">
+        <f t="shared" si="13"/>
+        <v>4.6847404903273708E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43514</v>
       </c>
@@ -7594,8 +9044,36 @@
         <f t="shared" si="3"/>
         <v>1.4963050287091439E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="14"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="9"/>
+        <v>9.9999999999999964E-2</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="10"/>
+        <v>0.12499999999999994</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="11"/>
+        <v>2.4999999999999991E-2</v>
+      </c>
+      <c r="Q40" s="9">
+        <f t="shared" si="12"/>
+        <v>2.3237228815330412E-4</v>
+      </c>
+      <c r="R40" s="9">
+        <f t="shared" si="13"/>
+        <v>4.8248566412877787E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43521</v>
       </c>
@@ -7627,8 +9105,36 @@
         <f t="shared" si="3"/>
         <v>1.1562698667036519E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="14"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="9"/>
+        <v>7.9999999999999946E-2</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="10"/>
+        <v>9.9999999999999922E-2</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="11"/>
+        <v>1.9999999999999987E-2</v>
+      </c>
+      <c r="Q41" s="9">
+        <f t="shared" si="12"/>
+        <v>3.1773947570700833E-4</v>
+      </c>
+      <c r="R41" s="9">
+        <f t="shared" si="13"/>
+        <v>4.9751120755075047E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43528</v>
       </c>
@@ -7660,8 +9166,36 @@
         <f t="shared" si="3"/>
         <v>-1.1773429663522794E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <f>M41+0.05</f>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="9"/>
+        <v>5.9999999999999921E-2</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="10"/>
+        <v>7.49999999999999E-2</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="11"/>
+        <v>1.499999999999998E-2</v>
+      </c>
+      <c r="Q42" s="9">
+        <f t="shared" si="12"/>
+        <v>4.0310666326071255E-4</v>
+      </c>
+      <c r="R42" s="9">
+        <f t="shared" si="13"/>
+        <v>5.134616745810551E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43535</v>
       </c>
@@ -7693,8 +9227,36 @@
         <f t="shared" si="3"/>
         <v>7.6398072375268633E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="14"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="9"/>
+        <v>3.9999999999999904E-2</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="10"/>
+        <v>4.9999999999999878E-2</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="11"/>
+        <v>9.9999999999999759E-3</v>
+      </c>
+      <c r="Q43" s="9">
+        <f t="shared" si="12"/>
+        <v>4.8847385081441687E-4</v>
+      </c>
+      <c r="R43" s="9">
+        <f t="shared" si="13"/>
+        <v>5.3025360438634844E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43542</v>
       </c>
@@ -7726,8 +9288,36 @@
         <f t="shared" si="3"/>
         <v>2.6488330821199613E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="14"/>
+        <v>0.95000000000000029</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="9"/>
+        <v>1.9999999999999886E-2</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="10"/>
+        <v>2.4999999999999856E-2</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="11"/>
+        <v>4.9999999999999715E-3</v>
+      </c>
+      <c r="Q44" s="9">
+        <f t="shared" si="12"/>
+        <v>5.7384103836812124E-4</v>
+      </c>
+      <c r="R44" s="9">
+        <f t="shared" si="13"/>
+        <v>5.4780962271760471E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43549</v>
       </c>
@@ -7759,8 +9349,33 @@
         <f t="shared" si="3"/>
         <v>-5.7576863790994581E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="14"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9">
+        <f t="shared" si="12"/>
+        <v>6.5920822592182497E-4</v>
+      </c>
+      <c r="R45" s="9">
+        <f t="shared" si="13"/>
+        <v>5.6605864059782018E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43556</v>
       </c>
@@ -7793,7 +9408,7 @@
         <v>3.7115046650935124E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43563</v>
       </c>
@@ -7826,7 +9441,7 @@
         <v>9.4923604060912492E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43570</v>
       </c>
@@ -8059,5 +9674,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>